--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H2">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I2">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J2">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2165623333333333</v>
+        <v>0.6381993333333335</v>
       </c>
       <c r="N2">
-        <v>0.6496869999999999</v>
+        <v>1.914598</v>
       </c>
       <c r="O2">
-        <v>0.0231281940961727</v>
+        <v>0.0835466365352712</v>
       </c>
       <c r="P2">
-        <v>0.0231281940961727</v>
+        <v>0.08354663653527121</v>
       </c>
       <c r="Q2">
-        <v>5.779416098090999</v>
+        <v>37.10568954505156</v>
       </c>
       <c r="R2">
-        <v>52.01474488281899</v>
+        <v>333.951205905464</v>
       </c>
       <c r="S2">
-        <v>0.02091640705259612</v>
+        <v>0.07973275904384017</v>
       </c>
       <c r="T2">
-        <v>0.02091640705259612</v>
+        <v>0.07973275904384018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H3">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I3">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J3">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>3.199173</v>
       </c>
       <c r="N3">
-        <v>9.597518999999998</v>
+        <v>9.597519</v>
       </c>
       <c r="O3">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="P3">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="Q3">
-        <v>85.37658258566698</v>
+        <v>186.003829742188</v>
       </c>
       <c r="R3">
-        <v>768.3892432710028</v>
+        <v>1674.034467679692</v>
       </c>
       <c r="S3">
-        <v>0.3089881960067313</v>
+        <v>0.3996852967806703</v>
       </c>
       <c r="T3">
-        <v>0.3089881960067313</v>
+        <v>0.3996852967806703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H4">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I4">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J4">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9095089999999999</v>
+        <v>0.6109783333333333</v>
       </c>
       <c r="N4">
-        <v>2.728527</v>
+        <v>1.832935</v>
       </c>
       <c r="O4">
-        <v>0.0971327763255965</v>
+        <v>0.07998313705424182</v>
       </c>
       <c r="P4">
-        <v>0.09713277632559651</v>
+        <v>0.07998313705424183</v>
       </c>
       <c r="Q4">
-        <v>24.272138534211</v>
+        <v>35.52302732284222</v>
       </c>
       <c r="R4">
-        <v>218.449246807899</v>
+        <v>319.70724590558</v>
       </c>
       <c r="S4">
-        <v>0.08784380999773574</v>
+        <v>0.07633193218525305</v>
       </c>
       <c r="T4">
-        <v>0.08784380999773574</v>
+        <v>0.07633193218525308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H5">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I5">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J5">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.795405666666667</v>
+        <v>2.143296666666667</v>
       </c>
       <c r="N5">
-        <v>11.386217</v>
+        <v>6.42989</v>
       </c>
       <c r="O5">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="P5">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="Q5">
-        <v>101.288290863381</v>
+        <v>124.6138887373911</v>
       </c>
       <c r="R5">
-        <v>911.594617770429</v>
+        <v>1121.52499863652</v>
       </c>
       <c r="S5">
-        <v>0.3665745960149886</v>
+        <v>0.2677705032849702</v>
       </c>
       <c r="T5">
-        <v>0.3665745960149885</v>
+        <v>0.2677705032849703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H6">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I6">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J6">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2904826666666667</v>
+        <v>0.358079</v>
       </c>
       <c r="N6">
-        <v>0.871448</v>
+        <v>1.074237</v>
       </c>
       <c r="O6">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="P6">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="Q6">
-        <v>7.752133873464</v>
+        <v>20.81915087125733</v>
       </c>
       <c r="R6">
-        <v>69.76920486117599</v>
+        <v>187.372357841316</v>
       </c>
       <c r="S6">
-        <v>0.02805591168234979</v>
+        <v>0.04473622132530052</v>
       </c>
       <c r="T6">
-        <v>0.02805591168234979</v>
+        <v>0.04473622132530052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H7">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I7">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J7">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9524316666666667</v>
+        <v>0.689113</v>
       </c>
       <c r="N7">
-        <v>2.857295</v>
+        <v>2.067339</v>
       </c>
       <c r="O7">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180725</v>
       </c>
       <c r="P7">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180727</v>
       </c>
       <c r="Q7">
-        <v>25.417619130435</v>
+        <v>40.06587237549466</v>
       </c>
       <c r="R7">
-        <v>228.758572173915</v>
+        <v>360.592851379452</v>
       </c>
       <c r="S7">
-        <v>0.09198944305388232</v>
+        <v>0.08609360416595727</v>
       </c>
       <c r="T7">
-        <v>0.09198944305388231</v>
+        <v>0.08609360416595729</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.531017</v>
       </c>
       <c r="I8">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J8">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2165623333333333</v>
+        <v>0.6381993333333335</v>
       </c>
       <c r="N8">
-        <v>0.6496869999999999</v>
+        <v>1.914598</v>
       </c>
       <c r="O8">
-        <v>0.0231281940961727</v>
+        <v>0.0835466365352712</v>
       </c>
       <c r="P8">
-        <v>0.0231281940961727</v>
+        <v>0.08354663653527121</v>
       </c>
       <c r="Q8">
-        <v>0.2548950935198889</v>
+        <v>0.7511642317962225</v>
       </c>
       <c r="R8">
-        <v>2.294055841679</v>
+        <v>6.760478086166001</v>
       </c>
       <c r="S8">
-        <v>0.0009224962247540194</v>
+        <v>0.001614102781284839</v>
       </c>
       <c r="T8">
-        <v>0.0009224962247540192</v>
+        <v>0.00161410278128484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.531017</v>
       </c>
       <c r="I9">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J9">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>3.199173</v>
       </c>
       <c r="N9">
-        <v>9.597518999999998</v>
+        <v>9.597519</v>
       </c>
       <c r="O9">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="P9">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="Q9">
         <v>3.765444749647</v>
@@ -1013,10 +1013,10 @@
         <v>33.889002746823</v>
       </c>
       <c r="S9">
-        <v>0.01362760074390433</v>
+        <v>0.008091193091883563</v>
       </c>
       <c r="T9">
-        <v>0.01362760074390433</v>
+        <v>0.008091193091883565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.531017</v>
       </c>
       <c r="I10">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J10">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9095089999999999</v>
+        <v>0.6109783333333333</v>
       </c>
       <c r="N10">
-        <v>2.728527</v>
+        <v>1.832935</v>
       </c>
       <c r="O10">
-        <v>0.0971327763255965</v>
+        <v>0.07998313705424182</v>
       </c>
       <c r="P10">
-        <v>0.09713277632559651</v>
+        <v>0.07998313705424183</v>
       </c>
       <c r="Q10">
-        <v>1.070497246884333</v>
+        <v>0.719124960543889</v>
       </c>
       <c r="R10">
-        <v>9.634475221959001</v>
+        <v>6.472124644895001</v>
       </c>
       <c r="S10">
-        <v>0.003874259230428514</v>
+        <v>0.001545256749152734</v>
       </c>
       <c r="T10">
-        <v>0.003874259230428514</v>
+        <v>0.001545256749152734</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.531017</v>
       </c>
       <c r="I11">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J11">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.795405666666667</v>
+        <v>2.143296666666667</v>
       </c>
       <c r="N11">
-        <v>11.386217</v>
+        <v>6.42989</v>
       </c>
       <c r="O11">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="P11">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="Q11">
-        <v>4.467213976965446</v>
+        <v>2.522672322014445</v>
       </c>
       <c r="R11">
-        <v>40.204925792689</v>
+        <v>22.70405089813</v>
       </c>
       <c r="S11">
-        <v>0.01616738859901774</v>
+        <v>0.00542072191256628</v>
       </c>
       <c r="T11">
-        <v>0.01616738859901774</v>
+        <v>0.005420721912566281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>3.531017</v>
       </c>
       <c r="I12">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J12">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2904826666666667</v>
+        <v>0.358079</v>
       </c>
       <c r="N12">
-        <v>0.871448</v>
+        <v>1.074237</v>
       </c>
       <c r="O12">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="P12">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="Q12">
-        <v>0.3418997447351111</v>
+        <v>0.4214610121143334</v>
       </c>
       <c r="R12">
-        <v>3.077097702616</v>
+        <v>3.793149109029</v>
       </c>
       <c r="S12">
-        <v>0.001237376598376512</v>
+        <v>0.0009056360287951214</v>
       </c>
       <c r="T12">
-        <v>0.001237376598376512</v>
+        <v>0.0009056360287951214</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3.531017</v>
       </c>
       <c r="I13">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J13">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9524316666666667</v>
+        <v>0.689113</v>
       </c>
       <c r="N13">
-        <v>2.857295</v>
+        <v>2.067339</v>
       </c>
       <c r="O13">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180725</v>
       </c>
       <c r="P13">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180727</v>
       </c>
       <c r="Q13">
-        <v>1.121017468779445</v>
+        <v>0.8110899059736667</v>
       </c>
       <c r="R13">
-        <v>10.089157219015</v>
+        <v>7.299809153763</v>
       </c>
       <c r="S13">
-        <v>0.004057098034143421</v>
+        <v>0.001742871156116646</v>
       </c>
       <c r="T13">
-        <v>0.004057098034143419</v>
+        <v>0.001742871156116646</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H14">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I14">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J14">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2165623333333333</v>
+        <v>0.6381993333333335</v>
       </c>
       <c r="N14">
-        <v>0.6496869999999999</v>
+        <v>1.914598</v>
       </c>
       <c r="O14">
-        <v>0.0231281940961727</v>
+        <v>0.0835466365352712</v>
       </c>
       <c r="P14">
-        <v>0.0231281940961727</v>
+        <v>0.08354663653527121</v>
       </c>
       <c r="Q14">
-        <v>0.01708178716633333</v>
+        <v>0.05669337411111111</v>
       </c>
       <c r="R14">
-        <v>0.153736084497</v>
+        <v>0.510240367</v>
       </c>
       <c r="S14">
-        <v>6.182105726473939E-05</v>
+        <v>0.0001218228038019668</v>
       </c>
       <c r="T14">
-        <v>6.182105726473939E-05</v>
+        <v>0.0001218228038019669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H15">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I15">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J15">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>3.199173</v>
       </c>
       <c r="N15">
-        <v>9.597518999999998</v>
+        <v>9.597519</v>
       </c>
       <c r="O15">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="P15">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="Q15">
-        <v>0.252341168721</v>
+        <v>0.2841932014999999</v>
       </c>
       <c r="R15">
-        <v>2.271070518489</v>
+        <v>2.557738813499999</v>
       </c>
       <c r="S15">
-        <v>0.0009132532614911865</v>
+        <v>0.0006106747599875529</v>
       </c>
       <c r="T15">
-        <v>0.0009132532614911864</v>
+        <v>0.0006106747599875531</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H16">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I16">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J16">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9095089999999999</v>
+        <v>0.6109783333333333</v>
       </c>
       <c r="N16">
-        <v>2.728527</v>
+        <v>1.832935</v>
       </c>
       <c r="O16">
-        <v>0.0971327763255965</v>
+        <v>0.07998313705424182</v>
       </c>
       <c r="P16">
-        <v>0.09713277632559651</v>
+        <v>0.07998313705424183</v>
       </c>
       <c r="Q16">
-        <v>0.07173934139299999</v>
+        <v>0.05427524194444443</v>
       </c>
       <c r="R16">
-        <v>0.6456540725369999</v>
+        <v>0.4884771774999999</v>
       </c>
       <c r="S16">
-        <v>0.0002596333679377725</v>
+        <v>0.0001166267179255165</v>
       </c>
       <c r="T16">
-        <v>0.0002596333679377725</v>
+        <v>0.0001166267179255165</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H17">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I17">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J17">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.795405666666667</v>
+        <v>2.143296666666667</v>
       </c>
       <c r="N17">
-        <v>11.386217</v>
+        <v>6.42989</v>
       </c>
       <c r="O17">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="P17">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="Q17">
-        <v>0.2993702127696667</v>
+        <v>0.1903961872222222</v>
       </c>
       <c r="R17">
-        <v>2.694331914927</v>
+        <v>1.713565685</v>
       </c>
       <c r="S17">
-        <v>0.001083457069613136</v>
+        <v>0.0004091236008489659</v>
       </c>
       <c r="T17">
-        <v>0.001083457069613136</v>
+        <v>0.0004091236008489661</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H18">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I18">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J18">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2904826666666667</v>
+        <v>0.358079</v>
       </c>
       <c r="N18">
-        <v>0.871448</v>
+        <v>1.074237</v>
       </c>
       <c r="O18">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="P18">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="Q18">
-        <v>0.02291240129866667</v>
+        <v>0.03180935116666666</v>
       </c>
       <c r="R18">
-        <v>0.206211611688</v>
+        <v>0.2862841604999999</v>
       </c>
       <c r="S18">
-        <v>8.292275620605404E-05</v>
+        <v>6.835197952145225E-05</v>
       </c>
       <c r="T18">
-        <v>8.292275620605404E-05</v>
+        <v>6.835197952145225E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H19">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I19">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J19">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9524316666666667</v>
+        <v>0.689113</v>
       </c>
       <c r="N19">
-        <v>2.857295</v>
+        <v>2.067339</v>
       </c>
       <c r="O19">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180725</v>
       </c>
       <c r="P19">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180727</v>
       </c>
       <c r="Q19">
-        <v>0.07512495257166667</v>
+        <v>0.06121620483333332</v>
       </c>
       <c r="R19">
-        <v>0.6761245731450001</v>
+        <v>0.5509458435</v>
       </c>
       <c r="S19">
-        <v>0.000271886304970322</v>
+        <v>0.0001315414689606665</v>
       </c>
       <c r="T19">
-        <v>0.000271886304970322</v>
+        <v>0.0001315414689606666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H20">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I20">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J20">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2165623333333333</v>
+        <v>0.6381993333333335</v>
       </c>
       <c r="N20">
-        <v>0.6496869999999999</v>
+        <v>1.914598</v>
       </c>
       <c r="O20">
-        <v>0.0231281940961727</v>
+        <v>0.0835466365352712</v>
       </c>
       <c r="P20">
-        <v>0.0231281940961727</v>
+        <v>0.08354663653527121</v>
       </c>
       <c r="Q20">
-        <v>0.2979547597561111</v>
+        <v>0.7615573079395558</v>
       </c>
       <c r="R20">
-        <v>2.681592837804999</v>
+        <v>6.854015771456001</v>
       </c>
       <c r="S20">
-        <v>0.001078334373670698</v>
+        <v>0.001636435438244483</v>
       </c>
       <c r="T20">
-        <v>0.001078334373670697</v>
+        <v>0.001636435438244483</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H21">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I21">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J21">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>3.199173</v>
       </c>
       <c r="N21">
-        <v>9.597518999999998</v>
+        <v>9.597519</v>
       </c>
       <c r="O21">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="P21">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="Q21">
-        <v>4.401544848364999</v>
+        <v>3.817543281952</v>
       </c>
       <c r="R21">
-        <v>39.61390363528499</v>
+        <v>34.357889537568</v>
       </c>
       <c r="S21">
-        <v>0.01592972406660072</v>
+        <v>0.008203142493006235</v>
       </c>
       <c r="T21">
-        <v>0.01592972406660071</v>
+        <v>0.008203142493006237</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H22">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I22">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J22">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9095089999999999</v>
+        <v>0.6109783333333333</v>
       </c>
       <c r="N22">
-        <v>2.728527</v>
+        <v>1.832935</v>
       </c>
       <c r="O22">
-        <v>0.0971327763255965</v>
+        <v>0.07998313705424182</v>
       </c>
       <c r="P22">
-        <v>0.09713277632559651</v>
+        <v>0.07998313705424183</v>
       </c>
       <c r="Q22">
-        <v>1.251337346711666</v>
+        <v>0.7290747427022222</v>
       </c>
       <c r="R22">
-        <v>11.262036120405</v>
+        <v>6.56167268432</v>
       </c>
       <c r="S22">
-        <v>0.004528741461024444</v>
+        <v>0.001566636855360055</v>
       </c>
       <c r="T22">
-        <v>0.004528741461024443</v>
+        <v>0.001566636855360056</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H23">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I23">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J23">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.795405666666667</v>
+        <v>2.143296666666667</v>
       </c>
       <c r="N23">
-        <v>11.386217</v>
+        <v>6.42989</v>
       </c>
       <c r="O23">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="P23">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="Q23">
-        <v>5.221864606750556</v>
+        <v>2.557575908231111</v>
       </c>
       <c r="R23">
-        <v>46.996781460755</v>
+        <v>23.01818317408</v>
       </c>
       <c r="S23">
-        <v>0.01889856065639862</v>
+        <v>0.005495722788811969</v>
       </c>
       <c r="T23">
-        <v>0.01889856065639862</v>
+        <v>0.00549572278881197</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H24">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I24">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J24">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2904826666666667</v>
+        <v>0.358079</v>
       </c>
       <c r="N24">
-        <v>0.871448</v>
+        <v>1.074237</v>
       </c>
       <c r="O24">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="P24">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="Q24">
-        <v>0.3996571879688889</v>
+        <v>0.4272923286293333</v>
       </c>
       <c r="R24">
-        <v>3.59691469172</v>
+        <v>3.845630957664</v>
       </c>
       <c r="S24">
-        <v>0.001446407782927136</v>
+        <v>0.000918166370106643</v>
       </c>
       <c r="T24">
-        <v>0.001446407782927136</v>
+        <v>0.000918166370106643</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H25">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I25">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J25">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9524316666666667</v>
+        <v>0.689113</v>
       </c>
       <c r="N25">
-        <v>2.857295</v>
+        <v>2.067339</v>
       </c>
       <c r="O25">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180725</v>
       </c>
       <c r="P25">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180727</v>
       </c>
       <c r="Q25">
-        <v>1.310391996880556</v>
+        <v>0.8223121111786666</v>
       </c>
       <c r="R25">
-        <v>11.793527971925</v>
+        <v>7.400809000608</v>
       </c>
       <c r="S25">
-        <v>0.00474246739463375</v>
+        <v>0.001766985446796096</v>
       </c>
       <c r="T25">
-        <v>0.004742467394633748</v>
+        <v>0.001766985446796096</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H26">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I26">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J26">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2165623333333333</v>
+        <v>0.6381993333333335</v>
       </c>
       <c r="N26">
-        <v>0.6496869999999999</v>
+        <v>1.914598</v>
       </c>
       <c r="O26">
-        <v>0.0231281940961727</v>
+        <v>0.0835466365352712</v>
       </c>
       <c r="P26">
-        <v>0.0231281940961727</v>
+        <v>0.08354663653527121</v>
       </c>
       <c r="Q26">
-        <v>0.01199675920477778</v>
+        <v>0.1629063363604445</v>
       </c>
       <c r="R26">
-        <v>0.107970832843</v>
+        <v>1.466157027244</v>
       </c>
       <c r="S26">
-        <v>4.341772500547171E-05</v>
+        <v>0.0003500533697931053</v>
       </c>
       <c r="T26">
-        <v>4.341772500547171E-05</v>
+        <v>0.0003500533697931055</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H27">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I27">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J27">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>3.199173</v>
       </c>
       <c r="N27">
-        <v>9.597518999999998</v>
+        <v>9.597519</v>
       </c>
       <c r="O27">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="P27">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="Q27">
-        <v>0.177222453899</v>
+        <v>0.816618767198</v>
       </c>
       <c r="R27">
-        <v>1.595002085091</v>
+        <v>7.349568904782001</v>
       </c>
       <c r="S27">
-        <v>0.0006413895316926303</v>
+        <v>0.001754751581064722</v>
       </c>
       <c r="T27">
-        <v>0.0006413895316926303</v>
+        <v>0.001754751581064723</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H28">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I28">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J28">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.9095089999999999</v>
+        <v>0.6109783333333333</v>
       </c>
       <c r="N28">
-        <v>2.728527</v>
+        <v>1.832935</v>
       </c>
       <c r="O28">
-        <v>0.0971327763255965</v>
+        <v>0.07998313705424182</v>
       </c>
       <c r="P28">
-        <v>0.09713277632559651</v>
+        <v>0.07998313705424183</v>
       </c>
       <c r="Q28">
-        <v>0.05038346373366666</v>
+        <v>0.1559579220477778</v>
       </c>
       <c r="R28">
-        <v>0.453451173603</v>
+        <v>1.40362129843</v>
       </c>
       <c r="S28">
-        <v>0.000182343859359976</v>
+        <v>0.0003351226071278281</v>
       </c>
       <c r="T28">
-        <v>0.000182343859359976</v>
+        <v>0.0003351226071278282</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H29">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I29">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J29">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.795405666666667</v>
+        <v>2.143296666666667</v>
       </c>
       <c r="N29">
-        <v>11.386217</v>
+        <v>6.42989</v>
       </c>
       <c r="O29">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="P29">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="Q29">
-        <v>0.2102515574458889</v>
+        <v>0.5470964782688889</v>
       </c>
       <c r="R29">
-        <v>1.892264017013</v>
+        <v>4.923868304420001</v>
       </c>
       <c r="S29">
-        <v>0.0007609258590038391</v>
+        <v>0.001175601699102887</v>
       </c>
       <c r="T29">
-        <v>0.0007609258590038391</v>
+        <v>0.001175601699102888</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H30">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I30">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J30">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.2904826666666667</v>
+        <v>0.358079</v>
       </c>
       <c r="N30">
-        <v>0.871448</v>
+        <v>1.074237</v>
       </c>
       <c r="O30">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="P30">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="Q30">
-        <v>0.01609167463022222</v>
+        <v>0.09140300682066667</v>
       </c>
       <c r="R30">
-        <v>0.144825071672</v>
+        <v>0.8226270613859999</v>
       </c>
       <c r="S30">
-        <v>5.823772004144814E-05</v>
+        <v>0.0001964069124727155</v>
       </c>
       <c r="T30">
-        <v>5.823772004144814E-05</v>
+        <v>0.0001964069124727155</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H31">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I31">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J31">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9524316666666667</v>
+        <v>0.689113</v>
       </c>
       <c r="N31">
-        <v>2.857295</v>
+        <v>2.067339</v>
       </c>
       <c r="O31">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180725</v>
       </c>
       <c r="P31">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180727</v>
       </c>
       <c r="Q31">
-        <v>0.05276122208388889</v>
+        <v>0.1759025249713333</v>
       </c>
       <c r="R31">
-        <v>0.474850998755</v>
+        <v>1.583122724742</v>
       </c>
       <c r="S31">
-        <v>0.0001909492549019902</v>
+        <v>0.0003779795985657086</v>
       </c>
       <c r="T31">
-        <v>0.0001909492549019902</v>
+        <v>0.0003779795985657087</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H32">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I32">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J32">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.2165623333333333</v>
+        <v>0.6381993333333335</v>
       </c>
       <c r="N32">
-        <v>0.6496869999999999</v>
+        <v>1.914598</v>
       </c>
       <c r="O32">
-        <v>0.0231281940961727</v>
+        <v>0.0835466365352712</v>
       </c>
       <c r="P32">
-        <v>0.0231281940961727</v>
+        <v>0.08354663653527121</v>
       </c>
       <c r="Q32">
-        <v>0.02921086595677778</v>
+        <v>0.04256470453666668</v>
       </c>
       <c r="R32">
-        <v>0.262897793611</v>
+        <v>0.3830823408300001</v>
       </c>
       <c r="S32">
-        <v>0.0001057176628816537</v>
+        <v>9.146309830662867E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001057176628816537</v>
+        <v>9.146309830662868E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H33">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I33">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J33">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>3.199173</v>
       </c>
       <c r="N33">
-        <v>9.597518999999998</v>
+        <v>9.597519</v>
       </c>
       <c r="O33">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="P33">
-        <v>0.3416618806805513</v>
+        <v>0.418803545983731</v>
       </c>
       <c r="Q33">
-        <v>0.431518317323</v>
+        <v>0.213368843235</v>
       </c>
       <c r="R33">
-        <v>3.883664855907</v>
+        <v>1.920319589115</v>
       </c>
       <c r="S33">
-        <v>0.001561717070131104</v>
+        <v>0.0004584872771186099</v>
       </c>
       <c r="T33">
-        <v>0.001561717070131103</v>
+        <v>0.00045848727711861</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H34">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I34">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J34">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.9095089999999999</v>
+        <v>0.6109783333333333</v>
       </c>
       <c r="N34">
-        <v>2.728527</v>
+        <v>1.832935</v>
       </c>
       <c r="O34">
-        <v>0.0971327763255965</v>
+        <v>0.07998313705424182</v>
       </c>
       <c r="P34">
-        <v>0.09713277632559651</v>
+        <v>0.07998313705424183</v>
       </c>
       <c r="Q34">
-        <v>0.1226785151256667</v>
+        <v>0.04074919994166667</v>
       </c>
       <c r="R34">
-        <v>1.104106636131</v>
+        <v>0.366742799475</v>
       </c>
       <c r="S34">
-        <v>0.0004439884091100637</v>
+        <v>8.756193942261528E-05</v>
       </c>
       <c r="T34">
-        <v>0.0004439884091100636</v>
+        <v>8.75619394226153E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H35">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I35">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J35">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.795405666666667</v>
+        <v>2.143296666666667</v>
       </c>
       <c r="N35">
-        <v>11.386217</v>
+        <v>6.42989</v>
       </c>
       <c r="O35">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="P35">
-        <v>0.4053377038437606</v>
+        <v>0.2805788383732642</v>
       </c>
       <c r="Q35">
-        <v>0.511940763077889</v>
+        <v>0.1429471711833333</v>
       </c>
       <c r="R35">
-        <v>4.607466867701</v>
+        <v>1.28652454065</v>
       </c>
       <c r="S35">
-        <v>0.001852775644738705</v>
+        <v>0.0003071650869638476</v>
       </c>
       <c r="T35">
-        <v>0.001852775644738704</v>
+        <v>0.0003071650869638476</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H36">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I36">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J36">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0.2904826666666667</v>
+        <v>0.358079</v>
       </c>
       <c r="N36">
-        <v>0.871448</v>
+        <v>1.074237</v>
       </c>
       <c r="O36">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="P36">
-        <v>0.03102265935553815</v>
+        <v>0.04687610046168444</v>
       </c>
       <c r="Q36">
-        <v>0.03918156083822223</v>
+        <v>0.023882078905</v>
       </c>
       <c r="R36">
-        <v>0.352634047544</v>
+        <v>0.214938710145</v>
       </c>
       <c r="S36">
-        <v>0.000141802815637209</v>
+        <v>5.131784548799165E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001418028156372089</v>
+        <v>5.131784548799165E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H37">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I37">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J37">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.9524316666666667</v>
+        <v>0.689113</v>
       </c>
       <c r="N37">
-        <v>2.857295</v>
+        <v>2.067339</v>
       </c>
       <c r="O37">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180725</v>
       </c>
       <c r="P37">
-        <v>0.1017167856983806</v>
+        <v>0.09021174159180727</v>
       </c>
       <c r="Q37">
-        <v>0.1284681104038889</v>
+        <v>0.045960391535</v>
       </c>
       <c r="R37">
-        <v>1.156212993635</v>
+        <v>0.413643523815</v>
       </c>
       <c r="S37">
-        <v>0.000464941655848793</v>
+        <v>9.875975541086294E-05</v>
       </c>
       <c r="T37">
-        <v>0.0004649416558487929</v>
+        <v>9.875975541086295E-05</v>
       </c>
     </row>
   </sheetData>
